--- a/worktime_export.xlsx
+++ b/worktime_export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Worker</t>
   </si>
@@ -29,6 +29,66 @@
   </si>
   <si>
     <t>Total Time</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-22 14:11:30</t>
+  </si>
+  <si>
+    <t>2024-04-22 14:11:31</t>
+  </si>
+  <si>
+    <t>0:00:01</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:08:36</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:08:38</t>
+  </si>
+  <si>
+    <t>0:00:02</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:08:40</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:08:41</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:34</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:35</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:36</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:37</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:38</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:39</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:40</t>
+  </si>
+  <si>
+    <t>2024-04-23 13:58:41</t>
   </si>
 </sst>
 </file>
@@ -360,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +443,142 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
